--- a/sketches/list.xlsx
+++ b/sketches/list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Just Data\Projects\DrAI\sketches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{4571BAE0-EF39-4DE1-9118-4ED8EEE7393A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A86F673-3FB9-4700-9641-BDEDB1EEFA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" xr2:uid="{95B8FAB9-A9FC-45EB-930B-4AAFE644BDC7}"/>
   </bookViews>
@@ -50,16 +50,16 @@
     <t>Date</t>
   </si>
   <si>
-    <t>raw_dimensions</t>
-  </si>
-  <si>
     <t>A4 x 2</t>
   </si>
   <si>
-    <t>A4 x 3</t>
-  </si>
-  <si>
-    <t>simple_connector_mk2</t>
+    <t>robot_general</t>
+  </si>
+  <si>
+    <t>connector</t>
+  </si>
+  <si>
+    <t>A4 x 1</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="B3:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -488,10 +488,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="E4" s="5">
         <v>45006</v>
@@ -502,10 +502,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E5" s="5">
         <v>44999</v>
